--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepak/Desktop/Markets/Options Strategy/Option Income Analyzer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepak/Documents/GitHub/dv-options-income-analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Shares</t>
   </si>
@@ -95,22 +95,7 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
     <t>GOOGL</t>
-  </si>
-  <si>
-    <t>NTES</t>
   </si>
   <si>
     <t>TSM</t>
@@ -129,36 +114,6 @@
   </si>
   <si>
     <t>BAC</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -554,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -617,7 +572,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="17">
         <v>2771.74</v>
@@ -665,7 +620,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17">
         <v>139.19</v>
@@ -689,7 +644,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" s="17">
         <v>168.23</v>
@@ -701,7 +656,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="17">
         <v>215</v>
@@ -713,7 +668,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17">
         <v>168.76</v>
@@ -725,7 +680,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="17">
         <v>467.43</v>
@@ -737,7 +692,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="17">
         <v>48.76</v>
@@ -748,183 +703,93 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="17">
-        <v>1288.712</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
+      <c r="A16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="17">
-        <v>296.19139999999999</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="17">
-        <v>130.35923076899999</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
+      <c r="A18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="17">
-        <v>5.085</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0</v>
-      </c>
+      <c r="A19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="17">
-        <v>140.307916667</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
+      <c r="A20" s="22"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="17">
-        <v>359.53333333299997</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
+      <c r="A21" s="22"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="17">
-        <v>48.265714285999998</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17">
-        <v>22.44845814</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
+      <c r="A23" s="22"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17">
-        <v>207.147272727</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
+      <c r="A24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="17">
-        <v>194.36793442600001</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="17">
-        <v>136.440151515</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="17">
-        <v>129.38409090900001</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="17">
-        <v>634.35</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0</v>
-      </c>
+      <c r="A28" s="22"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="17">
-        <v>42.348382608999998</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
+      <c r="A29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="17">
-        <v>118.72817499999999</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
+      <c r="A30" s="22"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Shares</t>
   </si>
@@ -114,6 +114,81 @@
   </si>
   <si>
     <t>BAC</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>ABT</t>
   </si>
 </sst>
 </file>
@@ -509,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -703,148 +778,298 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="17">
+        <v>386.98</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="17">
+        <v>145.47</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="17">
+        <v>158.29</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="17">
+        <v>369.52</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="17">
+        <v>131.37</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="17">
+        <v>55.54</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17">
+        <v>70.63</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17">
+        <v>730.08</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="17">
+        <v>211.37</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="17">
+        <v>155.44</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="17">
+        <v>101.17</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="17">
+        <v>60.9</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17">
+        <v>61.5</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="17">
+        <v>597.19000000000005</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="17">
+        <v>516.9</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="17">
+        <v>126.8</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17">
+        <v>174.18</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="17">
+        <v>249.67</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17">
+        <v>600.89</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="17">
+        <v>149.59</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17">
+        <v>133.52000000000001</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17">
+        <v>87.79</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="17">
+        <v>51.28</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="17">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="17">
+        <v>129.65</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Shares</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
@@ -116,79 +113,64 @@
     <t>BAC</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>BABA</t>
   </si>
   <si>
     <t>PFE</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>DIS</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>TMO</t>
   </si>
   <si>
     <t>NKE</t>
   </si>
   <si>
-    <t>ABBV</t>
+    <t>AMD</t>
   </si>
   <si>
-    <t>ORCL</t>
+    <t>ARKK</t>
   </si>
   <si>
-    <t>CMCSA</t>
+    <t>COIN</t>
   </si>
   <si>
-    <t>NFLX</t>
+    <t>DAL</t>
   </si>
   <si>
-    <t>ABT</t>
+    <t>DIDI</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>XBI</t>
   </si>
 </sst>
 </file>
@@ -582,9 +564,9 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -647,73 +629,73 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B5" s="17">
-        <v>2771.74</v>
+        <v>3224.28</v>
       </c>
       <c r="C5" s="18">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17">
-        <v>3224.28</v>
+        <v>1031.56</v>
       </c>
       <c r="C6" s="18">
-        <v>220</v>
+        <v>1060</v>
       </c>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="17">
-        <v>1031.56</v>
+        <v>326.48</v>
       </c>
       <c r="C7" s="18">
-        <v>1060</v>
+        <v>300</v>
       </c>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B8" s="17">
-        <v>326.48</v>
+        <v>139.19</v>
       </c>
       <c r="C8" s="18">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B9" s="17">
-        <v>139.19</v>
+        <v>265.75</v>
       </c>
       <c r="C9" s="18">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B10" s="17">
-        <v>265.75</v>
+        <v>168.23</v>
       </c>
       <c r="C10" s="18">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="G10" s="24"/>
     </row>
@@ -722,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="17">
-        <v>168.23</v>
+        <v>215</v>
       </c>
       <c r="C11" s="18">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="G11" s="24"/>
     </row>
@@ -734,10 +716,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="17">
-        <v>215</v>
+        <v>168.76</v>
       </c>
       <c r="C12" s="18">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -746,10 +728,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="17">
-        <v>168.76</v>
+        <v>467.43</v>
       </c>
       <c r="C13" s="18">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="G13" s="24"/>
     </row>
@@ -758,31 +740,31 @@
         <v>26</v>
       </c>
       <c r="B14" s="17">
-        <v>467.43</v>
+        <v>48.76</v>
       </c>
       <c r="C14" s="18">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="17">
-        <v>48.76</v>
+        <v>82.020340845000007</v>
       </c>
       <c r="C15" s="18">
-        <v>250</v>
+        <v>710</v>
       </c>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="17">
-        <v>386.98</v>
+        <v>97.02</v>
       </c>
       <c r="C16" s="18">
         <v>100</v>
@@ -791,109 +773,109 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="17">
-        <v>145.47</v>
+        <v>213.02322272699999</v>
       </c>
       <c r="C17" s="18">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="17">
-        <v>158.29</v>
+        <v>261.33841666699999</v>
       </c>
       <c r="C18" s="18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="17">
-        <v>369.52</v>
+        <v>41.292628571000002</v>
       </c>
       <c r="C19" s="18">
-        <v>100</v>
+        <v>1050</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" s="17">
-        <v>131.37</v>
+        <v>11.404442856999999</v>
       </c>
       <c r="C20" s="18">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="17">
-        <v>55.54</v>
+        <v>152.28787500000001</v>
       </c>
       <c r="C21" s="18">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="17">
-        <v>70.63</v>
+        <v>9.9809999999999999</v>
       </c>
       <c r="C22" s="18">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17">
-        <v>730.08</v>
+        <v>157.35424</v>
       </c>
       <c r="C23" s="18">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17">
-        <v>211.37</v>
+        <v>1288.712</v>
       </c>
       <c r="C24" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="17">
-        <v>155.44</v>
+        <v>0</v>
       </c>
       <c r="C25" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G25" s="24"/>
     </row>
@@ -902,10 +884,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="17">
-        <v>101.17</v>
+        <v>0</v>
       </c>
       <c r="C26" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -914,172 +896,118 @@
         <v>39</v>
       </c>
       <c r="B27" s="17">
-        <v>60.9</v>
+        <v>0</v>
       </c>
       <c r="C27" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B28" s="17">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="C28" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="17">
-        <v>597.19000000000005</v>
+        <v>0</v>
       </c>
       <c r="C29" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="17">
-        <v>516.9</v>
+        <v>0</v>
       </c>
       <c r="C30" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="17">
-        <v>126.8</v>
+        <v>0</v>
       </c>
       <c r="C31" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="17">
-        <v>174.18</v>
+        <v>0</v>
       </c>
       <c r="C32" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="17">
-        <v>249.67</v>
+        <v>0</v>
       </c>
       <c r="C33" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B34" s="17">
-        <v>600.89</v>
+        <v>0</v>
       </c>
       <c r="C34" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="17">
-        <v>149.59</v>
+        <v>0</v>
       </c>
       <c r="C35" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="17">
-        <v>133.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="C36" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="17">
-        <v>87.79</v>
-      </c>
-      <c r="C37" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="17">
-        <v>51.28</v>
-      </c>
-      <c r="C38" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="17">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="C39" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="17">
-        <v>129.65</v>
-      </c>
-      <c r="C40" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Shares</t>
   </si>
@@ -564,9 +564,9 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="A33" sqref="A33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -845,31 +845,31 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" s="17">
-        <v>157.35424</v>
+        <v>1288.712</v>
       </c>
       <c r="C23" s="18">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="17">
-        <v>1288.712</v>
+        <v>0</v>
       </c>
       <c r="C24" s="18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="17">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B34" s="17">
         <v>0</v>
@@ -986,28 +986,6 @@
         <v>0</v>
       </c>
       <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="17">
-        <v>0</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="17">
-        <v>0</v>
-      </c>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
